--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Reference</t>
   </si>
@@ -117,14 +117,17 @@
     <t>ESP-WROOM-32D Development Board</t>
   </si>
   <si>
-    <t>https://www.amazon.com/HiLetgo-ESP-WROOM-32-Development-Microcontroller-Integrated/dp/B0718T232Z/</t>
+    <t>https://www.amazon.com/HiLetgo-ESP32-DevKitC-ESP32-WROOM-32D-ESP-WROOM-32D-Development/dp/B09KLQF4RR/</t>
+  </si>
+  <si>
+    <t>Check board pinout and chip rev before ordering!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +264,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,7 +601,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -633,13 +644,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -673,6 +686,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -962,7 +976,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +984,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1101,14 +1115,16 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1118,7 +1134,10 @@
       <sortCondition ref="A1:A8"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="G8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>